--- a/outputs/SORs/SOR Testing_AMC Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Segment Functions.xlsx
@@ -9,10 +9,10 @@
     <sheet name="La Chaux-de-Fonds Switzerland" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Manila Philippines" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Rock Road Radford Virginia" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Milwaukee Wisconsin" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="South Beloit Gardner St Illino" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Rosemont Illinois" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Milwaukee Wisconsin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Rock Road Radford Virginia" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -119,16 +119,16 @@
     <t xml:space="preserve">Milwaukee Pmc Hq Wisconsin</t>
   </si>
   <si>
+    <t xml:space="preserve">Milwaukee Wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Beloit Gardner St Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosemont Illinois</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rock Road Radford Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Beloit Gardner St Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosemont Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milwaukee Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1048,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1119,7 +1119,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2013,9 +2013,7 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4" t="n">
         <v>0</v>
       </c>
@@ -2079,55 +2077,55 @@
         <v>30</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3105,9 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="7" t="n">
         <v>0</v>
       </c>
@@ -3171,55 +3171,55 @@
         <v>30</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Segment Functions.xlsx
@@ -1140,40 +1140,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1730,9 +1730,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3" t="n">
         <v>0</v>
       </c>
@@ -2091,9 +2089,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4" t="n">
         <v>0</v>
       </c>
@@ -2568,9 +2564,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5" t="n">
         <v>1</v>
       </c>
@@ -3185,9 +3179,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="7" t="n">
         <v>1</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Segment Functions.xlsx
@@ -977,7 +977,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1048,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1119,7 +1119,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1143,37 +1143,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_AMC Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Segment Functions.xlsx
@@ -1143,37 +1143,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.0714166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.21425</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0595166666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0595166666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0595166666666667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.21425</v>
+        <v>0.17855</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0595166666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0595166666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0595166666666667</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.21425</v>
+        <v>0.17855</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.857</v>
+        <v>0.7142</v>
       </c>
     </row>
     <row r="5">
@@ -1731,12 +1731,8 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="3" t="n">
         <v>0</v>
       </c>
@@ -2090,12 +2086,8 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="4" t="n">
         <v>0</v>
       </c>
@@ -2565,12 +2557,8 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
@@ -3117,9 +3105,7 @@
       <c r="L2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="M2" s="7"/>
       <c r="N2" s="7" t="n">
         <v>0</v>
       </c>
@@ -3180,12 +3166,8 @@
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="7" t="n">
         <v>1</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Segment Functions.xlsx
@@ -977,7 +977,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.3571</v>
+        <v>0.3333</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1048,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.3571</v>
+        <v>0.3333</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1119,7 +1119,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.3571</v>
+        <v>0.3333</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1149,31 +1149,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.0595166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.0595166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.0595166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.17855</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.0595166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.0595166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0595166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.17855</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.7142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1733,9 +1733,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="3" t="n">
         <v>0</v>
       </c>
@@ -2088,9 +2086,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="4"/>
       <c r="P5" s="4" t="n">
         <v>0</v>
       </c>
@@ -2559,9 +2555,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="5"/>
       <c r="P7" s="5" t="n">
         <v>1</v>
       </c>
@@ -3109,9 +3103,7 @@
       <c r="N2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="O2" s="7"/>
       <c r="P2" s="7" t="n">
         <v>0</v>
       </c>
@@ -3168,9 +3160,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3" s="7"/>
       <c r="P3" s="7" t="n">
         <v>1</v>
       </c>
